--- a/data/Excel/Carnival_Gaming_and_True_Rippers_stats.xlsx
+++ b/data/Excel/Carnival_Gaming_and_True_Rippers_stats.xlsx
@@ -460,6 +460,8 @@
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -470,32 +472,32 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>Bind</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>Breeze</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>Icebox</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Lotus</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>Split</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Sunset</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>Bind</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Lotus</t>
         </is>
       </c>
     </row>
@@ -570,6 +572,16 @@
           <t>RND</t>
         </is>
       </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>KPR</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>RND</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -623,16 +635,22 @@
         </is>
       </c>
       <c r="K5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -646,22 +664,48 @@
           <t>Surve</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v/>
-      </c>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="n"/>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="3" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="3" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -715,16 +759,22 @@
         </is>
       </c>
       <c r="K7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -738,22 +788,48 @@
           <t>LilBOii</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
+      <c r="C8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v/>
-      </c>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="n"/>
-      <c r="M8" s="3" t="n"/>
-      <c r="N8" s="3" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -807,16 +883,22 @@
         </is>
       </c>
       <c r="K9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -871,16 +953,22 @@
         </is>
       </c>
       <c r="K10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -935,16 +1023,22 @@
         </is>
       </c>
       <c r="K11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -959,10 +1053,10 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
@@ -996,22 +1090,28 @@
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="inlineStr">
+        <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="M12" s="3" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="N12" s="3" t="inlineStr">
-        <is>
-          <t>118</t>
         </is>
       </c>
     </row>
@@ -1027,10 +1127,10 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
@@ -1064,22 +1164,28 @@
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3" t="inlineStr">
+        <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="M13" s="3" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="N13" s="3" t="inlineStr">
-        <is>
-          <t>118</t>
         </is>
       </c>
     </row>
@@ -1095,10 +1201,10 @@
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
@@ -1132,22 +1238,28 @@
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="L14" s="3" t="inlineStr">
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="M14" s="3" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t>118</t>
         </is>
       </c>
     </row>
@@ -1162,22 +1274,48 @@
           <t>GauRanG</t>
         </is>
       </c>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
+      <c r="C15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="E15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v/>
-      </c>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="3" t="n"/>
-      <c r="L15" s="3" t="n"/>
-      <c r="M15" s="3" t="n"/>
-      <c r="N15" s="3" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -1191,10 +1329,10 @@
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
@@ -1228,22 +1366,28 @@
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3" t="inlineStr">
+        <is>
           <t>0.73</t>
         </is>
       </c>
-      <c r="L16" s="3" t="inlineStr">
+      <c r="P16" s="3" t="inlineStr">
         <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="M16" s="3" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="N16" s="3" t="inlineStr">
-        <is>
-          <t>118</t>
         </is>
       </c>
     </row>
@@ -1259,10 +1403,10 @@
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
@@ -1296,22 +1440,28 @@
       </c>
       <c r="K17" s="3" t="inlineStr">
         <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="inlineStr">
+        <is>
           <t>0.37</t>
         </is>
       </c>
-      <c r="L17" s="3" t="inlineStr">
+      <c r="P17" s="3" t="inlineStr">
         <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="M17" s="3" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="N17" s="3" t="inlineStr">
-        <is>
-          <t>118</t>
         </is>
       </c>
     </row>
